--- a/data/HR1/Location1/Location1_2030.xlsx
+++ b/data/HR1/Location1/Location1_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218A296-AFD7-48A9-B766-C6D0C7E5EACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2A0BE2-3403-4003-9811-48B47AA383D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9321,7 +9321,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -9380,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -22081,99 +22081,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610513</v>
+        <v>6.0545671605549458</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305257</v>
+        <v>3.0272835802774729</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9943325017549984</v>
+        <v>3.5948992515794989</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223678</v>
+        <v>0.28380783565101314</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734206</v>
+        <v>1.7028470139060785</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489469</v>
+        <v>1.1352313426040523</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -22182,99 +22182,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.18189053518315</v>
+        <v>18.163701481664837</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.710294350326048</v>
+        <v>16.839264915293441</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.289838297509728</v>
+        <v>16.460854467758757</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.710294350326048</v>
+        <v>16.839264915293441</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.605180337121968</v>
+        <v>16.744662303409772</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.394952310713812</v>
+        <v>16.55545707964243</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.971662508774994</v>
+        <v>17.974496257897496</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.647819221795253</v>
+        <v>23.083037299615732</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.065441525489071</v>
+        <v>25.258897372940165</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.909187380244205</v>
+        <v>24.218268642219783</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.750099485876831</v>
+        <v>24.975089537289147</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.696125604713544</v>
+        <v>25.826513044242191</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.275669551897227</v>
+        <v>25.448102596707507</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.80123961791762</v>
+        <v>25.92111565612586</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.858047248203416</v>
+        <v>23.272242523383074</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.593845340631965</v>
+        <v>23.934460806568769</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.068275274611572</v>
+        <v>23.461447747150416</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.698959353836042</v>
+        <v>24.029063418452438</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.593845340631965</v>
+        <v>23.934460806568769</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.329643433060518</v>
+        <v>24.596679089754467</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.329643433060518</v>
+        <v>24.596679089754467</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.065441525489071</v>
+        <v>25.258897372940165</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.542705208591176</v>
+        <v>22.98843468773206</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.335310931305518</v>
+        <v>21.001779838174969</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -22283,99 +22283,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.434757446264598</v>
+        <v>24.69128170163814</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.224529419856438</v>
+        <v>24.502076477870794</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.017135142570783</v>
+        <v>22.515421628313707</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.383617314223809</v>
+        <v>23.74525558280143</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.860880997325914</v>
+        <v>21.474792897593321</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.488731327427889</v>
+        <v>23.839858194685103</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.795572119672627</v>
+        <v>29.516014907705362</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.943325017549988</v>
+        <v>35.948992515794991</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.892184885509195</v>
+        <v>35.002966396958286</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.468895083570381</v>
+        <v>36.42200557521334</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.73593074026433</v>
+        <v>33.9623376662379</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.838211004345908</v>
+        <v>35.854389903911319</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.207526925121435</v>
+        <v>35.286774232609289</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.048439030754068</v>
+        <v>36.043595127678657</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.207526925121435</v>
+        <v>35.286774232609289</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.108080410162358</v>
+        <v>31.597272369146122</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.738764489386831</v>
+        <v>32.164888040448147</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.318308436570518</v>
+        <v>31.786477592913467</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.423422449774598</v>
+        <v>31.881080204797136</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.895018634631704</v>
+        <v>33.205516771168533</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.948992515794991</v>
+        <v>32.354093264215493</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.054106528999064</v>
+        <v>32.448695876099158</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.48023008006038</v>
+        <v>29.232207072054344</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.429089948019595</v>
+        <v>28.286180953217638</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22384,99 +22384,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.889351136386693</v>
+        <v>36.800416022748024</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.054106528999064</v>
+        <v>32.448695876099158</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.531370212101173</v>
+        <v>30.178233190891056</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.79557211967262</v>
+        <v>29.516014907705358</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.531370212101173</v>
+        <v>30.178233190891056</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.113747908407358</v>
+        <v>28.00237311756662</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.210360674243937</v>
+        <v>33.489324606819544</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.199025677753937</v>
+        <v>40.679123109978541</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>50.244498311549719</v>
+        <v>45.220048480394745</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.451892588835378</v>
+        <v>47.206703329951836</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.446225090590382</v>
+        <v>50.801602581531348</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.653619367876033</v>
+        <v>52.788257431088432</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.812707262243407</v>
+        <v>52.031436536019065</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.494531473508665</v>
+        <v>53.545078326157807</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.289970945345509</v>
+        <v>49.760973850810963</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.025769037774069</v>
+        <v>50.423192133996665</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.133716800100643</v>
+        <v>48.720345120090577</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.395084958549582</v>
+        <v>49.855576462694629</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.241664562427225</v>
+        <v>47.017498106184505</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.031436536019065</v>
+        <v>46.828292882417159</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>51.926322522814992</v>
+        <v>46.733690270533494</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.395084958549589</v>
+        <v>49.855576462694636</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.184856932141429</v>
+        <v>49.66637123892729</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>47.721761994651835</v>
+        <v>42.94958579518665</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -22485,99 +22485,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.678990462142762</v>
+        <v>3.3110914159284857</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571051</v>
+        <v>1.3244365663713948</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774997</v>
+        <v>1.7974496257897499</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6818242112652624</v>
+        <v>1.513641790138736</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631604</v>
+        <v>0.37841044753468445</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855165</v>
+        <v>0.66221828318569642</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8892184885509193</v>
+        <v>3.5002966396958275</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6193490827344696</v>
+        <v>7.7574141744610241</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82674336002013</v>
+        <v>9.7440690240181169</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.562541452448681</v>
+        <v>10.406287307203813</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.562541452448681</v>
+        <v>10.406287307203813</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.559707703326179</v>
+        <v>12.203736932993561</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.034137637305784</v>
+        <v>11.730723873575204</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.559707703326179</v>
+        <v>12.203736932993561</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.929023624101708</v>
+        <v>11.636121261691537</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.247199412836443</v>
+        <v>10.122479471552799</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.931857373224206</v>
+        <v>9.8386716359017861</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.721629346816048</v>
+        <v>9.6494664121344442</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.406287307203812</v>
+        <v>9.3656585764834297</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.196059280795653</v>
+        <v>9.1764533527160896</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.931857373224206</v>
+        <v>9.8386716359017861</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.349479676918021</v>
+        <v>12.014531709226219</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.085277769346574</v>
+        <v>12.676749992411915</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7756032279793406</v>
+        <v>8.798042905181406</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -22687,99 +22687,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.042771532509065</v>
+        <v>39.638494379258162</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.44339134146788</v>
+        <v>52.599052207321087</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72.318441084406288</v>
+        <v>65.086596975965662</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.227495816814724</v>
+        <v>56.004746235133247</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.60247923583524</v>
+        <v>51.84223131225172</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.09391166454985</v>
+        <v>40.584520498094868</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.698959353836042</v>
+        <v>24.029063418452438</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.090945267591577</v>
+        <v>9.0818507408324205</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9403586205917085</v>
+        <v>4.4463227585325376</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0966127658365759</v>
+        <v>-5.4869514892529185</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8892184885509193</v>
+        <v>-3.5002966396958275</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.71879559769355</v>
+        <v>-11.446916037924197</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.661987967407759</v>
+        <v>-14.095789170666983</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-19.866548495570914</v>
+        <v>-17.879893646013823</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.3551471751630242</v>
+        <v>-8.4196324576467205</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3664821716530267</v>
+        <v>-1.2298339544877239</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.147752897877365</v>
+        <v>6.4329776080896286</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6193490827344696</v>
+        <v>7.7574141744610241</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.812574614407623</v>
+        <v>18.731317152966859</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.23303066722394</v>
+        <v>19.109727600501547</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.61084783536697</v>
+        <v>13.149763051830272</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569722</v>
+        <v>5.9599645486712758</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.61368158448947</v>
+        <v>11.352313426040524</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.980163756142497</v>
+        <v>12.582147380528246</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -22788,99 +22788,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.326809683938016</v>
+        <v>26.394128715544216</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.80123961791762</v>
+        <v>25.92111565612586</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.383617314223809</v>
+        <v>23.74525558280143</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.173389287815649</v>
+        <v>23.556050359034085</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.858047248203416</v>
+        <v>23.272242523383074</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.909187380244205</v>
+        <v>24.218268642219783</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.119415406652362</v>
+        <v>24.407473865987125</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.431923697142096</v>
+        <v>26.488731327427885</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.798405868795122</v>
+        <v>27.718565281915613</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.693291855591042</v>
+        <v>27.62396267003194</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.642151723550253</v>
+        <v>26.677936551195227</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.591011591509464</v>
+        <v>25.731910432358518</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.698959353836042</v>
+        <v>24.029063418452438</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.014301393448282</v>
+        <v>24.312871254103452</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.912021129366703</v>
+        <v>22.420819016430031</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.437591195387096</v>
+        <v>22.89383207584839</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.278503301019729</v>
+        <v>23.650652970917754</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.014301393448282</v>
+        <v>24.312871254103452</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.852379749958409</v>
+        <v>26.867141774962569</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.636484225305253</v>
+        <v>30.272835802774729</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.852379749958409</v>
+        <v>26.867141774962569</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.218861921611438</v>
+        <v>28.096975729450296</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.957493763162489</v>
+        <v>26.961744386846245</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.755766984121838</v>
+        <v>21.380190285709656</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -22889,99 +22889,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>110.36971386428286</v>
+        <v>99.33274247785458</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>92.500331619589446</v>
+        <v>83.250298457630507</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>78.83550990305919</v>
+        <v>70.95195891275327</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>75.682089506936819</v>
+        <v>68.113880556243132</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>75.682089506936819</v>
+        <v>68.113880556243132</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>89.346911223467075</v>
+        <v>80.412220101120369</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>125.08567571285391</v>
+        <v>112.57710814156853</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>138.75049742938415</v>
+        <v>124.87544768644575</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>167.13128099448548</v>
+        <v>150.41815289503691</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>175.54040205081179</v>
+        <v>157.98636184573061</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>180.79610271101575</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>195.51206455958678</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>210.22802640815783</v>
+        <v>189.20522376734203</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>204.97232574795387</v>
+        <v>184.47509317315848</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>197.61434482366838</v>
+        <v>177.85291034130154</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>188.15408363530125</v>
+        <v>169.33867527177114</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>176.59154218285258</v>
+        <v>158.93238796456734</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>175.54040205081179</v>
+        <v>157.98636184573061</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>166.08014086244469</v>
+        <v>149.47212677620024</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>173.43812178673022</v>
+        <v>156.09430960805719</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>173.43812178673022</v>
+        <v>156.09430960805719</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>180.79610271101575</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>168.18242112652626</v>
+        <v>151.36417901387364</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>127.18795597693548</v>
+        <v>114.46916037924194</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -22990,99 +22990,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8380783565101311</v>
+        <v>2.5542705208591179</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305257</v>
+        <v>3.0272835802774729</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1534203961223675</v>
+        <v>2.8380783565101311</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1022802640815783</v>
+        <v>1.8920522376734206</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1022802640815783</v>
+        <v>1.8920522376734206</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2045605281631566</v>
+        <v>3.7841044753468411</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2557006602039458</v>
+        <v>4.7301305941835512</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3096745413672348</v>
+        <v>3.8787070872305121</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8892184885509202</v>
+        <v>3.5002966396958279</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.678990462142762</v>
+        <v>3.3110914159284857</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8835509903059187</v>
+        <v>7.0951958912753268</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8892184885509202</v>
+        <v>3.5002966396958279</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7812707262243404</v>
+        <v>5.2031436536019067</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5710426998161822</v>
+        <v>5.0139384298345639</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2017267790406567</v>
+        <v>5.5815541011365912</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4687624357346039</v>
+        <v>3.1218861921611434</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2585344093264466</v>
+        <v>2.932680968393802</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2017267790406567</v>
+        <v>5.5815541011365912</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2585344093264466</v>
+        <v>2.932680968393802</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -23091,99 +23091,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.281337050142227</v>
+        <v>21.853203345128005</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.230196918101441</v>
+        <v>20.907177226291296</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.073942772856572</v>
+        <v>19.866548495570918</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.019968891693281</v>
+        <v>20.717972002523954</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.809740865285129</v>
+        <v>20.528766778756616</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.019968891693281</v>
+        <v>20.717972002523954</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.903519881999198</v>
+        <v>27.813167893799282</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.792738370550119</v>
+        <v>31.313464533495104</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.789904621427624</v>
+        <v>33.11091415928486</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.792738370550126</v>
+        <v>31.313464533495111</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.741598238509333</v>
+        <v>30.367438414658398</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.054106528999071</v>
+        <v>32.448695876099166</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.843878502590911</v>
+        <v>32.25949065233182</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.531370212101173</v>
+        <v>30.178233190891056</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.059774027244067</v>
+        <v>28.85379662451966</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.903519881999202</v>
+        <v>27.813167893799282</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.903519881999198</v>
+        <v>27.813167893799282</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.537037710346176</v>
+        <v>26.583333939311562</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.377949815978806</v>
+        <v>27.340154834380925</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.954660014039987</v>
+        <v>28.759194012635991</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.429089948019598</v>
+        <v>28.286180953217642</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.21602817248894</v>
+        <v>29.894425355240045</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.903519881999198</v>
+        <v>27.813167893799282</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.488731327427889</v>
+        <v>23.839858194685103</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -23192,99 +23192,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0426388846732868</v>
+        <v>6.3383749962059577</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9914987526324976</v>
+        <v>5.3923488773692485</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610504</v>
+        <v>6.0545671605549449</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1477528978773668</v>
+        <v>6.4329776080896304</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0966127658365767</v>
+        <v>5.4869514892529194</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6193490827344696</v>
+        <v>7.7574141744610241</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7784369771018405</v>
+        <v>7.0005932793916559</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0937790167140768</v>
+        <v>7.2844011150426695</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7244630959385514</v>
+        <v>7.8520167863446959</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4630949374896023</v>
+        <v>6.7167854437406422</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1988930299181568</v>
+        <v>7.3790037269263404</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9886650035099969</v>
+        <v>7.1897985031589977</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5682089506936823</v>
+        <v>6.811388055624314</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8835509903059187</v>
+        <v>7.0951958912753268</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5682089506936823</v>
+        <v>6.811388055624314</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.4091210563263132</v>
+        <v>7.5682089506936823</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9886650035099969</v>
+        <v>7.1897985031589977</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7784369771018405</v>
+        <v>7.0005932793916559</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1449191487548642</v>
+        <v>8.2304272338793787</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9346911223467078</v>
+        <v>8.0412220101120369</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5653752015711824</v>
+        <v>8.6088376814140641</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3040070431222333</v>
+        <v>7.4736063388100105</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7244630959385514</v>
+        <v>7.8520167863446959</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -23293,11 +23293,11 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23313,79 +23313,79 @@
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -23394,99 +23394,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9403586205917094</v>
+        <v>4.4463227585325384</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7301305941835512</v>
+        <v>4.2571175347651957</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7301305941835512</v>
+        <v>4.2571175347651957</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2557006602039458</v>
+        <v>4.7301305941835512</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7301305941835512</v>
+        <v>4.2571175347651957</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8352446073876294</v>
+        <v>4.3517201466488666</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7812707262243404</v>
+        <v>5.2031436536019067</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9914987526324985</v>
+        <v>5.3923488773692485</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8863847394284186</v>
+        <v>5.2977462654855776</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0966127658365767</v>
+        <v>5.4869514892529194</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8863847394284186</v>
+        <v>5.2977462654855776</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.519902567775393</v>
+        <v>4.0679123109978539</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9943325017549984</v>
+        <v>3.5948992515794989</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9943325017549984</v>
+        <v>3.5948992515794989</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2045605281631566</v>
+        <v>3.7841044753468411</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4147885545713148</v>
+        <v>3.9733096991141834</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -23495,99 +23495,99 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Pc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9914987526324985</v>
+        <v>5.3923488773692485</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Pc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.465928686612104</v>
+        <v>4.9193358179508939</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Pc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1505866469998676</v>
+        <v>4.6355279822998803</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Pc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0454726337957876</v>
+        <v>4.5409253704162094</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Pc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0454726337957876</v>
+        <v>4.5409253704162094</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Pc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0454726337957876</v>
+        <v>4.5409253704162094</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Pc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2528669110814459</v>
+        <v>6.5275802199733013</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Pc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8807172411834188</v>
+        <v>8.8926455170650769</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Pc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.301173293999735</v>
+        <v>9.2710559645997606</v>
       </c>
       <c r="K16" s="1">
         <f>'[1]Pc, 2020, Summer'!K16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.196059280795653</v>
+        <v>9.1764533527160896</v>
       </c>
       <c r="L16" s="1">
         <f>'[1]Pc, 2020, Summer'!L16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.985831254387497</v>
+        <v>8.9872481289487478</v>
       </c>
       <c r="M16" s="1">
         <f>'[1]Pc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.301173293999735</v>
+        <v>9.2710559645997606</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Pc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82674336002013</v>
+        <v>9.7440690240181169</v>
       </c>
       <c r="O16" s="1">
         <f>'[1]Pc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.511401320407892</v>
+        <v>9.4602611883671024</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Pc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8807172411834188</v>
+        <v>8.8926455170650769</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Pc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.039805135550786</v>
+        <v>8.1358246219957078</v>
       </c>
       <c r="R16" s="1">
         <f>'[1]Pc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.039805135550786</v>
+        <v>8.1358246219957078</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Pc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1449191487548642</v>
+        <v>8.2304272338793787</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Pc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.196059280795653</v>
+        <v>9.1764533527160896</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Pc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4602611883671024</v>
+        <v>8.5142350695303914</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Pc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.985831254387497</v>
+        <v>8.9872481289487478</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Pc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.61651533361197</v>
+        <v>9.5548638002507733</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Pc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.250033161958946</v>
+        <v>8.3250298457630514</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Pc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2528669110814459</v>
+        <v>6.5275802199733013</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -23596,99 +23596,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Pc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.599512838876969</v>
+        <v>20.33956155498927</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Pc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.707460601203547</v>
+        <v>18.636714541083194</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Pc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.287004548387227</v>
+        <v>18.258304093548507</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Pc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.446092442754598</v>
+        <v>17.501483198479143</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Pc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.235864416346441</v>
+        <v>17.312277974711801</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Pc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.130750403142361</v>
+        <v>17.217675362828125</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Pc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.806907116162627</v>
+        <v>22.326216404546365</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Pc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.485897578305387</v>
+        <v>25.637307820474849</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Pc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.377949815978806</v>
+        <v>27.340154834380925</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Pc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.534203961223675</v>
+        <v>28.380783565101307</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Pc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.323975934815518</v>
+        <v>28.191578341333965</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Pc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.059774027244067</v>
+        <v>28.85379662451966</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Pc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.059774027244067</v>
+        <v>28.85379662451966</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Pc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.636484225305253</v>
+        <v>30.272835802774729</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Pc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.693291855591045</v>
+        <v>27.623962670031943</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Pc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.429089948019595</v>
+        <v>28.286180953217638</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Pc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.008633895203282</v>
+        <v>27.907770505682954</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Pc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.008633895203282</v>
+        <v>27.907770505682954</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Pc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.852379749958409</v>
+        <v>26.867141774962569</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Pc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.852379749958409</v>
+        <v>26.867141774962569</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Pc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.537037710346176</v>
+        <v>26.583333939311562</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Pc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.954660014039987</v>
+        <v>28.759194012635991</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Pc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.377949815978806</v>
+        <v>27.340154834380925</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Pc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.173389287815649</v>
+        <v>23.556050359034085</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -23697,99 +23697,99 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Pc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.457427439244602</v>
+        <v>10.311684695320142</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Pc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.511401320407892</v>
+        <v>9.4602611883671024</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Pc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.301173293999735</v>
+        <v>9.2710559645997606</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Pc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.301173293999735</v>
+        <v>9.2710559645997606</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Pc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.61651533361197</v>
+        <v>9.5548638002507733</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Pc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82674336002013</v>
+        <v>9.7440690240181169</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Pc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.40061980895881</v>
+        <v>12.96055782806293</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Pc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.39778605983631</v>
+        <v>14.758007453852679</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Pc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.923356125856706</v>
+        <v>15.231020513271037</v>
       </c>
       <c r="K18" s="1">
         <f>'[1]Pc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.556873954203681</v>
+        <v>14.001186558783312</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Pc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.977330007019994</v>
+        <v>14.379597006317995</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Pc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.079610271101572</v>
+        <v>16.271649243991416</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Pc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.974496257897496</v>
+        <v>16.177046632107746</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Pc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.448926191877103</v>
+        <v>15.704033572689392</v>
       </c>
       <c r="P18" s="1">
         <f>'[1]Pc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.713128099448546</v>
+        <v>15.041815289503694</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Pc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.661987967407759</v>
+        <v>14.095789170666983</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Pc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.187558033428154</v>
+        <v>14.568802230085339</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Pc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.292672046632234</v>
+        <v>14.66340484196901</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Pc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.292672046632234</v>
+        <v>14.66340484196901</v>
       </c>
       <c r="U18" s="1">
         <f>'[1]Pc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.556873954203681</v>
+        <v>14.001186558783312</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Pc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.028470139060783</v>
+        <v>15.325623125154706</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Pc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.50290007304039</v>
+        <v>14.85261006573635</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Pc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.769935729734337</v>
+        <v>12.392942156760903</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Pc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.718795597693548</v>
+        <v>11.446916037924195</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -23798,99 +23798,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Pc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.61651533361197</v>
+        <v>9.5548638002507733</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Pc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6704892147752588</v>
+        <v>8.7034402932977333</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Pc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.304007043122235</v>
+        <v>7.4736063388100114</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Pc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1449191487548642</v>
+        <v>8.2304272338793787</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Pc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4602611883671024</v>
+        <v>8.5142350695303914</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Pc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.090945267591575</v>
+        <v>9.0818507408324187</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Pc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.769935729734337</v>
+        <v>12.392942156760903</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Pc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.082444020224074</v>
+        <v>14.474199618201668</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Pc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.028470139060783</v>
+        <v>15.325623125154706</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Pc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.713128099448546</v>
+        <v>15.041815289503694</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Pc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.031303888183286</v>
+        <v>13.528173499364957</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Pc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.028470139060783</v>
+        <v>15.325623125154706</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Pc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.60801408624447</v>
+        <v>14.947212677620023</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Pc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.292672046632234</v>
+        <v>14.66340484196901</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Pc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.769935729734337</v>
+        <v>12.392942156760903</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Pc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.349479676918021</v>
+        <v>12.014531709226219</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Pc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.139251650509864</v>
+        <v>11.825326485458877</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Pc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.034137637305786</v>
+        <v>11.730723873575208</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Pc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.823909610897626</v>
+        <v>11.541518649807866</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Pc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.190391782550654</v>
+        <v>12.771352604295588</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Pc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.295505795754732</v>
+        <v>12.865955216179259</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Pc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.241531914591443</v>
+        <v>13.717378723132299</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Pc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.875049742938415</v>
+        <v>12.487544768644574</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Pc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.877883492060919</v>
+        <v>10.690095142854828</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -23899,35 +23899,35 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Pc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Pc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Pc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Pc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Pc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Pc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Pc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Pc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Pc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23935,31 +23935,31 @@
       </c>
       <c r="K20" s="1">
         <f>'[1]Pc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Pc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Pc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Pc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Pc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Pc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Pc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Pc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23971,27 +23971,27 @@
       </c>
       <c r="T20" s="1">
         <f>'[1]Pc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Pc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Pc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Pc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Pc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Pc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -24000,99 +24000,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Pc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.923356125856706</v>
+        <v>15.231020513271037</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Pc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.872215993815916</v>
+        <v>14.284994394434325</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Pc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.241531914591443</v>
+        <v>13.717378723132299</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Pc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.031303888183286</v>
+        <v>13.528173499364957</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Pc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.451759940999599</v>
+        <v>13.906583946899641</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Pc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.821075861775126</v>
+        <v>13.338968275597614</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Pc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.659154218285259</v>
+        <v>15.893238796456734</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Pc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.18189053518315</v>
+        <v>18.163701481664837</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Pc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.23303066722394</v>
+        <v>19.109727600501547</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Pc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.073942772856572</v>
+        <v>19.866548495570918</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Pc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.755766984121838</v>
+        <v>21.380190285709656</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Pc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.804073367040125</v>
+        <v>24.123666030336111</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Pc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.974496257897496</v>
+        <v>16.177046632107746</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Pc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.176223036938151</v>
+        <v>21.758600733244336</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Pc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.914854878489205</v>
+        <v>20.623369390640285</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Pc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.284170799264729</v>
+        <v>20.055753719338256</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Pc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.335310931305518</v>
+        <v>21.001779838174969</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Pc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.179056786060652</v>
+        <v>19.961151107454587</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Pc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.18189053518315</v>
+        <v>18.163701481664837</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Pc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.917688627611703</v>
+        <v>18.825919764850536</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Pc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.022802640815783</v>
+        <v>18.920522376734205</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Pc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.284170799264729</v>
+        <v>20.055753719338256</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Pc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.974496257897496</v>
+        <v>16.177046632107746</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Pc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.39778605983631</v>
+        <v>14.758007453852679</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -24101,99 +24101,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Pc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Pc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Pc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Pc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Pc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Pc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Pc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9943325017549984</v>
+        <v>3.5948992515794989</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Pc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Pc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4630949374896023</v>
+        <v>6.7167854437406422</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Pc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4630949374896023</v>
+        <v>6.7167854437406422</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Pc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Pc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1988930299181551</v>
+        <v>7.3790037269263395</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Pc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610513</v>
+        <v>6.0545671605549458</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Pc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Pc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7812707262243404</v>
+        <v>5.2031436536019067</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Pc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7812707262243404</v>
+        <v>5.2031436536019067</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Pc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.465928686612104</v>
+        <v>4.9193358179508939</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Pc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Pc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.465928686612104</v>
+        <v>4.9193358179508939</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Pc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8863847394284186</v>
+        <v>5.2977462654855776</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Pc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9375248714692077</v>
+        <v>6.2437723843222868</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Pc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0426388846732877</v>
+        <v>6.3383749962059586</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Pc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5710426998161822</v>
+        <v>5.0139384298345639</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Pc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.678990462142762</v>
+        <v>3.3110914159284857</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -24202,99 +24202,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Pc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7301305941835512</v>
+        <v>4.2571175347651957</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Pc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Pc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Pc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Pc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Pc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5710426998161822</v>
+        <v>5.0139384298345639</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Pc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Pc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Pc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Pc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Pc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3579809242855241</v>
+        <v>6.6221828318569713</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Pc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3579809242855241</v>
+        <v>6.6221828318569713</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Pc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3579809242855241</v>
+        <v>6.6221828318569713</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Pc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3579809242855241</v>
+        <v>6.6221828318569713</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Pc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Pc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Pc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5170688186528931</v>
+        <v>5.865361936787604</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Pc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Pc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Pc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Pc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Pc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610513</v>
+        <v>6.0545671605549458</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Pc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610513</v>
+        <v>6.0545671605549458</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Pc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7812707262243404</v>
+        <v>5.2031436536019067</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -24303,99 +24303,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Pc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.7841044753468411</v>
+        <v>-3.405694027812157</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Pc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-20.60234658799947</v>
+        <v>-18.542111929199521</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Pc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-23.755766984121838</v>
+        <v>-21.380190285709656</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Pc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-25.858047248203416</v>
+        <v>-23.272242523383074</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Pc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.346645927795521</v>
+        <v>-13.81198133501597</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Pc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-27.960327512284994</v>
+        <v>-25.164294761056492</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Pc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.039805135550786</v>
+        <v>-8.1358246219957078</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Pc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.193225531673153</v>
+        <v>-10.973902978505839</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Pc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.346645927795521</v>
+        <v>-13.81198133501597</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Pc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7272968450610513</v>
+        <v>6.0545671605549458</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Pc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.931857373224208</v>
+        <v>9.8386716359017878</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Pc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.289838297509728</v>
+        <v>16.460854467758757</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Pc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>46.670621862611036</v>
+        <v>42.003559676349937</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Pc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>75.051405427712353</v>
+        <v>67.54626488494111</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Pc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>71.897985031589982</v>
+        <v>64.708186528430986</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Pc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.642284371386026</v>
+        <v>59.978055934247429</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Pc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.437723843222876</v>
+        <v>56.193951458900592</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Pc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.335443579141298</v>
+        <v>54.301899221227167</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Pc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.80123961791762</v>
+        <v>25.92111565612586</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Pc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.108080410162358</v>
+        <v>31.597272369146122</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Pc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.130883050978142</v>
+        <v>50.51779474588033</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Pc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.642284371386026</v>
+        <v>59.978055934247429</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Pc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.642284371386026</v>
+        <v>59.978055934247429</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Pc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72.949125163630768</v>
+        <v>65.654212647267698</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -24404,99 +24404,99 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Pc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.738764489386831</v>
+        <v>32.164888040448147</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Pc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.531370212101166</v>
+        <v>30.178233190891053</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Pc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.323975934815522</v>
+        <v>28.191578341333969</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Pc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.636484225305246</v>
+        <v>30.272835802774726</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Pc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.852379749958406</v>
+        <v>26.867141774962565</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Pc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.593845340631962</v>
+        <v>23.934460806568769</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Pc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.474562581815384</v>
+        <v>32.827106323633849</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Pc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.994465149590781</v>
+        <v>36.895018634631704</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Pc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.346778575631298</v>
+        <v>47.11210071806817</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Pc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.346778575631305</v>
+        <v>47.112100718068177</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Pc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.812707262243407</v>
+        <v>52.031436536019065</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Pc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.284303447100505</v>
+        <v>53.355873102390454</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Pc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.809873513120898</v>
+        <v>53.828886161808811</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Pc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>70.95195891275327</v>
+        <v>63.856763021477938</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Pc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72.633783124018521</v>
+        <v>65.37040481161668</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Pc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>66.01160029216156</v>
+        <v>59.4104402629454</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Pc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.647951869631036</v>
+        <v>56.383156682667931</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Pc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.392251209427094</v>
+        <v>51.653026088484388</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Pc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.136550549223138</v>
+        <v>46.922895494300818</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Pc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.076909169814847</v>
+        <v>51.369218252833363</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Pc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>46.670621862611043</v>
+        <v>42.003559676349944</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Pc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>48.772902126692607</v>
+        <v>43.895611914023348</v>
       </c>
       <c r="X25" s="1">
         <f>'[1]Pc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.968961407488273</v>
+        <v>53.072065266739443</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Pc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>47.511533968243668</v>
+        <v>42.760380571419304</v>
       </c>
     </row>
   </sheetData>
@@ -34661,75 +34661,75 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223678</v>
+        <v>0.28380783565101314</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447356</v>
+        <v>0.56761567130202628</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4687624357346039</v>
+        <v>3.1218861921611434</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5767101980611837</v>
+        <v>1.4190391782550655</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8380783565101311</v>
+        <v>2.5542705208591179</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34737,15 +34737,15 @@
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34762,99 +34762,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1022802640815783</v>
+        <v>-1.8920522376734206</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734206</v>
+        <v>1.7028470139060785</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -34863,79 +34863,79 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.9431923697142093</v>
+        <v>-2.6488731327427888</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.8380783565101311</v>
+        <v>-2.5542705208591179</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8892184885509198</v>
+        <v>-3.5002966396958275</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8892184885509198</v>
+        <v>-3.5002966396958275</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.2045605281631566</v>
+        <v>-3.7841044753468411</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4687624357346039</v>
+        <v>-3.1218861921611434</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2073942772856574</v>
+        <v>1.9866548495570917</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.678990462142762</v>
+        <v>3.3110914159284857</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2585344093264466</v>
+        <v>2.932680968393802</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305257</v>
+        <v>3.0272835802774729</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2073942772856574</v>
+        <v>-1.9866548495570917</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671017</v>
+        <v>0.85142350695303914</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34943,19 +34943,19 @@
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9971662508774992</v>
+        <v>-1.7974496257897494</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.732964343306052</v>
+        <v>-2.459667908975447</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -34964,99 +34964,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447356</v>
+        <v>-0.56761567130202628</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407894</v>
+        <v>-0.94602611883671051</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693415</v>
+        <v>-1.6082444020224074</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693415</v>
+        <v>-1.6082444020224074</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6818242112652626</v>
+        <v>-1.5136417901387362</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.9943325017549984</v>
+        <v>-3.5948992515794989</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1022802640815779</v>
+        <v>1.8920522376734203</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1477528978773659</v>
+        <v>6.4329776080896295</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6221828318569713</v>
+        <v>5.959964548671274</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.039805135550786</v>
+        <v>8.1358246219957078</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6704892147752588</v>
+        <v>8.7034402932977333</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6193490827344696</v>
+        <v>7.7574141744610241</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9914987526324976</v>
+        <v>5.3923488773692485</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0454726337957876</v>
+        <v>4.5409253704162094</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3096745413672348</v>
+        <v>3.8787070872305121</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1505866469998676</v>
+        <v>4.6355279822998803</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.153420396122367</v>
+        <v>2.8380783565101306</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4687624357346043</v>
+        <v>3.1218861921611438</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7841044753468416</v>
+        <v>3.4056940278121575</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8380783565101311</v>
+        <v>2.5542705208591179</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489467</v>
+        <v>1.1352313426040521</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -35065,99 +35065,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671017</v>
+        <v>0.85142350695303914</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0483063829182884</v>
+        <v>2.7434757446264597</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8380783565101311</v>
+        <v>2.5542705208591179</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734203</v>
+        <v>1.7028470139060783</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693417</v>
+        <v>1.6082444020224076</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693417</v>
+        <v>1.6082444020224076</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734203</v>
+        <v>1.7028470139060783</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6818242112652628</v>
+        <v>1.5136417901387365</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1022802640815783</v>
+        <v>1.8920522376734206</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693417</v>
+        <v>1.6082444020224076</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -35166,99 +35166,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>105.63958327009931</v>
+        <v>95.07562494308938</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.27026734932377</v>
+        <v>95.643240614391402</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.53163550777273</v>
+        <v>96.778471956995446</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.37254761340536</v>
+        <v>97.535292852064813</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.58277563981352</v>
+        <v>97.724498075832173</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>108.79300366622168</v>
+        <v>97.913703299599518</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.37538136252786</v>
+        <v>95.737843226275075</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.59127688718101</v>
+        <v>92.332149198462929</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>100.80433866271169</v>
+        <v>90.723904796440507</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.756032279793388</v>
+        <v>87.980429051814056</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>98.491830372221941</v>
+        <v>88.642647334999751</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.335576226977068</v>
+        <v>87.602018604279365</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>98.491830372221941</v>
+        <v>88.642647334999751</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>98.281602345813781</v>
+        <v>88.45344211123242</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>99.54297050426274</v>
+        <v>89.588673453836464</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.43502274193615</v>
+        <v>91.291520467742544</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.64525076834431</v>
+        <v>91.480725691509875</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.11968070232392</v>
+        <v>91.007712632091526</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.85547879475247</v>
+        <v>91.669930915277234</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.01456668911983</v>
+        <v>90.913110020207853</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.6963909003851</v>
+        <v>92.426751810346602</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.54013675514022</v>
+        <v>91.386123079626202</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.96059280795654</v>
+        <v>91.764533527160893</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.38104886077286</v>
+        <v>92.142943974695584</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -35267,99 +35267,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.545538957713674</v>
+        <v>21.19098506194231</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.082444020224074</v>
+        <v>14.474199618201668</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.821075861775126</v>
+        <v>13.338968275597614</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.872215993815916</v>
+        <v>14.284994394434325</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.866548495570914</v>
+        <v>17.879893646013823</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.340978429550518</v>
+        <v>17.406880586595467</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.019968891693281</v>
+        <v>20.717972002523954</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.866548495570914</v>
+        <v>17.879893646013823</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.815408363530125</v>
+        <v>16.933867527177114</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.914854878489205</v>
+        <v>20.623369390640285</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.22736316897894</v>
+        <v>22.704626852081049</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.281337050142231</v>
+        <v>21.853203345128009</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.119415406652362</v>
+        <v>24.407473865987125</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.065441525489071</v>
+        <v>25.258897372940165</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.014301393448282</v>
+        <v>24.312871254103452</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.323975934815518</v>
+        <v>28.191578341333965</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.426256198897093</v>
+        <v>30.083630579007387</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.423422449774598</v>
+        <v>31.881080204797136</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.164888040448147</v>
+        <v>28.948399236403336</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.585344093264467</v>
+        <v>29.32680968393802</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.270002053652227</v>
+        <v>29.043001848287002</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.960327512284994</v>
+        <v>25.164294761056492</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.059774027244067</v>
+        <v>28.85379662451966</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.108080410162358</v>
+        <v>31.597272369146122</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -35368,99 +35368,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.4602611883671024</v>
+        <v>-8.5142350695303914</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.7756032279793406</v>
+        <v>-8.798042905181406</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.5653752015711806</v>
+        <v>-8.6088376814140624</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.7756032279793406</v>
+        <v>-8.798042905181406</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.6704892147752588</v>
+        <v>-8.7034402932977333</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.931857373224208</v>
+        <v>-9.8386716359017878</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.1449191487548642</v>
+        <v>-8.2304272338793787</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3636484225305257</v>
+        <v>-3.0272835802774729</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5227363168978938</v>
+        <v>-2.2704626852081047</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693417</v>
+        <v>-1.6082444020224076</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693417</v>
+        <v>1.6082444020224076</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6818242112652628</v>
+        <v>1.5136417901387365</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4204560528163156</v>
+        <v>-0.378410447534684</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.1534203961223675</v>
+        <v>-2.8380783565101311</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9971662508774992</v>
+        <v>-1.7974496257897494</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.0483063829182884</v>
+        <v>-2.7434757446264597</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.625016580979473</v>
+        <v>-4.1625149228815257</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.1534203961223675</v>
+        <v>-2.8380783565101311</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.0454726337957876</v>
+        <v>-4.5409253704162094</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3636484225305257</v>
+        <v>-3.0272835802774729</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.5710426998161822</v>
+        <v>-5.0139384298345639</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3068407922447349</v>
+        <v>-5.6761567130202621</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -35469,99 +35469,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-35.738764489386831</v>
+        <v>-32.164888040448147</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-42.045605281631566</v>
+        <v>-37.84104475346841</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-44.147885545713144</v>
+        <v>-39.733096991141835</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-46.250165809794723</v>
+        <v>-41.625149228815253</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-44.147885545713144</v>
+        <v>-39.733096991141835</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-65.170688186528935</v>
+        <v>-58.65361936787604</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-49.403586205917094</v>
+        <v>-44.463227585325384</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-25.22736316897894</v>
+        <v>-22.704626852081049</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3579809242855241</v>
+        <v>-6.6221828318569713</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.1534203961223675</v>
+        <v>-2.8380783565101311</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.767101980611837</v>
+        <v>14.190391782550654</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.715961848571048</v>
+        <v>13.244365663713943</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.715961848571048</v>
+        <v>13.244365663713943</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3068407922447349</v>
+        <v>-5.6761567130202621</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3068407922447349</v>
+        <v>-5.6761567130202621</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.869382244693416</v>
+        <v>-16.082444020224074</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.818242112652626</v>
+        <v>-15.136417901387365</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.767101980611837</v>
+        <v>-14.190391782550654</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.562541452448681</v>
+        <v>-10.406287307203813</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.869382244693416</v>
+        <v>-16.082444020224074</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-27.329643433060518</v>
+        <v>-24.596679089754467</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -35570,99 +35570,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8835509903059187</v>
+        <v>-7.0951958912753268</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6733229638977605</v>
+        <v>-6.905990667507985</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6733229638977605</v>
+        <v>-6.905990667507985</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3579809242855241</v>
+        <v>-6.6221828318569713</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4630949374896023</v>
+        <v>-6.7167854437406422</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1477528978773659</v>
+        <v>-6.4329776080896295</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4630949374896023</v>
+        <v>-6.7167854437406422</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5170688186528931</v>
+        <v>-5.865361936787604</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.7272968450610513</v>
+        <v>-6.0545671605549458</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6733229638977605</v>
+        <v>-6.905990667507985</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5682089506936823</v>
+        <v>-6.811388055624314</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8324108582651295</v>
+        <v>-6.1491697724386167</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.7812707262243404</v>
+        <v>-5.2031436536019067</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.9914987526324985</v>
+        <v>-5.3923488773692485</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8835509903059187</v>
+        <v>-7.0951958912753268</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3068407922447349</v>
+        <v>-5.6761567130202621</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8324108582651295</v>
+        <v>-6.1491697724386167</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3068407922447349</v>
+        <v>-5.6761567130202621</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5682089506936823</v>
+        <v>-6.811388055624314</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4119548054488131</v>
+        <v>-5.7707593249039331</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3579809242855241</v>
+        <v>-6.6221828318569713</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0966127658365767</v>
+        <v>-5.4869514892529194</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2528669110814459</v>
+        <v>6.5275802199733013</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8324108582651295</v>
+        <v>-6.1491697724386167</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -35671,99 +35671,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.73579809242855232</v>
+        <v>-0.6622182831856972</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671017</v>
+        <v>-0.85142350695303914</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671017</v>
+        <v>-0.85142350695303914</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.73579809242855232</v>
+        <v>-0.6622182831856972</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6818242112652628</v>
+        <v>1.5136417901387365</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9943325017549984</v>
+        <v>3.5948992515794989</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0994465149590775</v>
+        <v>3.6895018634631698</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2045605281631557</v>
+        <v>3.7841044753468402</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6761567130202621</v>
+        <v>5.1085410417182358</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.360814673408024</v>
+        <v>4.8247332060672221</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2557006602039458</v>
+        <v>4.7301305941835512</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5738764489386834</v>
+        <v>3.2164888040448152</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8380783565101311</v>
+        <v>2.5542705208591179</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7329643433060515</v>
+        <v>2.4596679089754465</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693417</v>
+        <v>1.6082444020224076</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407894</v>
+        <v>0.94602611883671051</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407877</v>
+        <v>-9.4602611883670903E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -35772,43 +35772,43 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.156254145244868</v>
+        <v>-1.0406287307203812</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1562541452448682</v>
+        <v>-1.0406287307203814</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2102280264081578</v>
+        <v>-0.189205223767342</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407901</v>
+        <v>9.4602611883671112E-2</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35816,7 +35816,7 @@
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815791</v>
+        <v>0.18920522376734214</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35828,43 +35828,43 @@
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1051140132040789</v>
+        <v>9.4602611883671001E-2</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447356</v>
+        <v>-0.56761567130202628</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447356</v>
+        <v>-0.56761567130202628</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.73579809242855232</v>
+        <v>-0.6622182831856972</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407889</v>
+        <v>-0.94602611883671017</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407889</v>
+        <v>-0.94602611883671017</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407889</v>
+        <v>-0.94602611883671017</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -35873,99 +35873,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693415</v>
+        <v>-1.6082444020224074</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693415</v>
+        <v>-1.6082444020224074</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9971662508774992</v>
+        <v>-1.7974496257897494</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6818242112652628</v>
+        <v>-1.5136417901387365</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1562541452448682</v>
+        <v>-1.0406287307203814</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6818242112652628</v>
+        <v>-1.5136417901387365</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6818242112652628</v>
+        <v>-1.5136417901387365</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571046</v>
+        <v>-1.3244365663713944</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1562541452448682</v>
+        <v>-1.0406287307203814</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571046</v>
+        <v>-1.3244365663713944</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1562541452448682</v>
+        <v>-1.0406287307203814</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571046</v>
+        <v>-1.3244365663713944</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -35974,99 +35974,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -36075,35 +36075,35 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Qc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Qc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6818242112652628</v>
+        <v>-1.5136417901387365</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Qc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Qc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571046</v>
+        <v>-1.3244365663713944</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Qc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Qc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7869382244693415</v>
+        <v>-1.6082444020224074</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Qc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Qc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.73579809242855232</v>
+        <v>-0.6622182831856972</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Qc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36119,7 +36119,7 @@
       </c>
       <c r="M16" s="1">
         <f>'[1]Qc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Qc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36127,11 +36127,11 @@
       </c>
       <c r="O16" s="1">
         <f>'[1]Qc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Qc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Qc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36139,35 +36139,35 @@
       </c>
       <c r="R16" s="1">
         <f>'[1]Qc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Qc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Qc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Qc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Qc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Qc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Qc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Qc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -36176,99 +36176,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Qc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Qc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Qc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Qc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Qc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571049</v>
+        <v>-1.3244365663713946</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Qc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571049</v>
+        <v>-1.3244365663713946</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Qc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Qc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Qc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5738764489386834</v>
+        <v>3.2164888040448152</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Qc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2045605281631566</v>
+        <v>3.7841044753468411</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Qc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305257</v>
+        <v>3.0272835802774729</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Qc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1505866469998676</v>
+        <v>4.6355279822998803</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Qc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9403586205917094</v>
+        <v>4.4463227585325384</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Qc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1505866469998676</v>
+        <v>4.6355279822998803</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Qc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Qc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5738764489386834</v>
+        <v>3.2164888040448152</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Qc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2585344093264461</v>
+        <v>2.9326809683938011</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Qc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5738764489386834</v>
+        <v>3.2164888040448152</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Qc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9431923697142097</v>
+        <v>2.6488731327427892</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Qc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305257</v>
+        <v>3.0272835802774729</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Qc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Qc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Qc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489469</v>
+        <v>1.1352313426040523</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Qc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -36277,35 +36277,35 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Qc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Qc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8920522376734206</v>
+        <v>-1.7028470139060785</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Qc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2073942772856574</v>
+        <v>-1.9866548495570917</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Qc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2073942772856574</v>
+        <v>-1.9866548495570917</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Qc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3125082904897365</v>
+        <v>-2.0812574614407628</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Qc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3125082904897365</v>
+        <v>-2.0812574614407628</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Qc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Qc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42045605281631571</v>
+        <v>-0.37841044753468411</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Qc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36313,19 +36313,19 @@
       </c>
       <c r="K18" s="1">
         <f>'[1]Qc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Qc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Qc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Qc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21022802640815785</v>
+        <v>0.18920522376734206</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Qc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36333,19 +36333,19 @@
       </c>
       <c r="P18" s="1">
         <f>'[1]Qc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Qc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Qc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Qc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10511401320407893</v>
+        <v>9.4602611883671028E-2</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Qc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36353,23 +36353,23 @@
       </c>
       <c r="U18" s="1">
         <f>'[1]Qc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Qc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Qc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Qc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4715961848571046</v>
+        <v>-1.3244365663713944</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Qc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5767101980611837</v>
+        <v>-1.4190391782550655</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -36378,99 +36378,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Qc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Qc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Qc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Qc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1562541452448682</v>
+        <v>-1.0406287307203814</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Qc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0511401320407892</v>
+        <v>-0.94602611883671028</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Qc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Qc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Qc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5767101980611837</v>
+        <v>1.4190391782550655</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Qc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5767101980611837</v>
+        <v>1.4190391782550655</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Qc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734206</v>
+        <v>1.7028470139060785</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Qc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Qc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1022802640815783</v>
+        <v>1.8920522376734206</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Qc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Qc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2073942772856574</v>
+        <v>1.9866548495570917</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Qc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Qc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Qc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Qc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Qc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Qc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Qc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Qc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Qc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Qc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -36479,99 +36479,99 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Qc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Qc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Qc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Qc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Qc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5767101980611837</v>
+        <v>1.4190391782550655</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Qc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Qc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Qc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734206</v>
+        <v>1.7028470139060785</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Qc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="K20" s="1">
         <f>'[1]Qc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Qc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Qc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Qc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.732964343306052</v>
+        <v>2.459667908975447</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Qc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Qc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2073942772856574</v>
+        <v>1.9866548495570917</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Qc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Qc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="S20" s="1">
         <f>'[1]Qc, 2020, Summer'!S20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
       <c r="T20" s="1">
         <f>'[1]Qc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Qc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Qc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Qc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Qc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4176223036938147</v>
+        <v>2.1758600733244333</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Qc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6278503301019729</v>
+        <v>2.3650652970917756</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -36580,99 +36580,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Qc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52557006602039458</v>
+        <v>-0.47301305941835514</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Qc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Qc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Qc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Qc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.73579809242855232</v>
+        <v>-0.6622182831856972</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Qc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.366482171653026</v>
+        <v>-1.2298339544877235</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Qc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Qc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42045605281631571</v>
+        <v>0.37841044753468411</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Qc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Qc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489469</v>
+        <v>1.1352313426040523</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Qc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Qc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Qc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Qc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Qc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6818242112652628</v>
+        <v>1.5136417901387365</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Qc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Qc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Qc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73579809242855232</v>
+        <v>0.6622182831856972</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Qc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52557006602039458</v>
+        <v>0.47301305941835514</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Qc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Qc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Qc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31534203961223672</v>
+        <v>0.28380783565101309</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Qc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31534203961223672</v>
+        <v>-0.28380783565101309</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Qc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -36681,99 +36681,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Qc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63068407922447345</v>
+        <v>-0.56761567130202617</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Qc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Qc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Qc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Qc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84091210563263141</v>
+        <v>-0.75682089506936823</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Qc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.94602611883671028</v>
+        <v>-0.85142350695303926</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Qc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10511401320407893</v>
+        <v>-9.4602611883671028E-2</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Qc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Qc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Qc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1562541452448682</v>
+        <v>1.0406287307203814</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Qc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Qc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Qc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Qc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489469</v>
+        <v>1.1352313426040523</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Qc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2613681584489469</v>
+        <v>1.1352313426040523</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Qc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Qc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Qc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0511401320407892</v>
+        <v>0.94602611883671028</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Qc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Qc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Qc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Qc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84091210563263141</v>
+        <v>0.75682089506936823</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Qc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63068407922447345</v>
+        <v>0.56761567130202617</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Qc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21022802640815785</v>
+        <v>-0.18920522376734206</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -36782,99 +36782,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Qc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94602611883671028</v>
+        <v>0.85142350695303926</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Qc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Qc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Qc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Qc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Qc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Qc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Qc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366482171653026</v>
+        <v>1.2298339544877235</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Qc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Qc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7869382244693415</v>
+        <v>1.6082444020224074</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Qc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Qc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Qc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Qc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3125082904897365</v>
+        <v>2.0812574614407628</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Qc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Qc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5227363168978938</v>
+        <v>2.2704626852081047</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Qc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Qc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Qc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Qc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Qc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Qc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9971662508774992</v>
+        <v>1.7974496257897494</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Qc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734206</v>
+        <v>1.7028470139060785</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Qc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4715961848571046</v>
+        <v>1.3244365663713944</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -36883,99 +36883,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Qc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.6704892147752588</v>
+        <v>-8.7034402932977333</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Qc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.772769478856837</v>
+        <v>-10.595492530971155</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Qc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-13.875049742938415</v>
+        <v>-12.487544768644574</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Qc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-20.18189053518315</v>
+        <v>-18.163701481664837</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Qc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-21.23303066722394</v>
+        <v>-19.109727600501547</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Qc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-24.386451063346307</v>
+        <v>-21.947805957011678</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Qc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.028470139060783</v>
+        <v>-15.325623125154706</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Qc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2102280264081578</v>
+        <v>-0.189205223767342</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Qc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0966127658365767</v>
+        <v>5.4869514892529194</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Qc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.60801408624447</v>
+        <v>14.947212677620023</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Qc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.556873954203681</v>
+        <v>14.001186558783312</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Qc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.301173293999735</v>
+        <v>9.2710559645997606</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Qc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0966127658365767</v>
+        <v>5.4869514892529194</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Qc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3636484225305257</v>
+        <v>-3.0272835802774729</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Qc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2613681584489469</v>
+        <v>-1.1352313426040523</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Qc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5170688186528931</v>
+        <v>-5.865361936787604</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Qc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5170688186528931</v>
+        <v>-5.865361936787604</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Qc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6193490827344696</v>
+        <v>-7.7574141744610241</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Qc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2102280264081578</v>
+        <v>-0.189205223767342</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Qc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3125082904897365</v>
+        <v>-2.0812574614407628</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Qc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6193490827344696</v>
+        <v>-7.7574141744610241</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Qc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.721629346816048</v>
+        <v>-9.6494664121344442</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Qc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.721629346816048</v>
+        <v>-9.6494664121344442</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Qc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.977330007019994</v>
+        <v>-14.379597006317995</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -36984,87 +36984,87 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Qc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6221828318569722</v>
+        <v>-5.9599645486712758</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Qc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6221828318569713</v>
+        <v>-5.959964548671274</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Qc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4687624357346047</v>
+        <v>-3.1218861921611443</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Qc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1022802640815774</v>
+        <v>-1.8920522376734197</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Qc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.0994465149590784</v>
+        <v>-3.6895018634631702</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Qc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4176223036938156</v>
+        <v>-2.1758600733244342</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Qc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.519902567775393</v>
+        <v>-4.0679123109978539</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Qc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4659286866121048</v>
+        <v>4.9193358179508948</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Qc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8324108582651304</v>
+        <v>6.1491697724386167</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Qc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3664821716530267</v>
+        <v>1.2298339544877239</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Qc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3636484225305234</v>
+        <v>3.0272835802774711</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Qc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9886650035099969</v>
+        <v>7.1897985031589977</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Qc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488122</v>
+        <v>5.7707593249039322</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Qc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5682089506936832</v>
+        <v>6.8113880556243149</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Qc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8920522376734195</v>
+        <v>1.7028470139060774</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Qc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1449191487548624</v>
+        <v>8.2304272338793769</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Qc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.4091210563263115</v>
+        <v>7.5682089506936814</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Qc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.625016580979473</v>
+        <v>4.1625149228815257</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Qc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4659286866121022</v>
+        <v>4.9193358179508921</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Qc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4119548054488131</v>
+        <v>5.7707593249039331</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Qc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.1534203961223675</v>
+        <v>-2.8380783565101311</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Qc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -37072,11 +37072,11 @@
       </c>
       <c r="X25" s="1">
         <f>'[1]Qc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3153420396122375</v>
+        <v>0.28380783565101375</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Qc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.2045605281631548</v>
+        <v>-3.7841044753468394</v>
       </c>
     </row>
   </sheetData>
